--- a/data/trans_orig/P05A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>201781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>178180</v>
+        <v>177263</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224569</v>
+        <v>224890</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.345432312959691</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3050298672741421</v>
+        <v>0.3034599529769631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3844429838836566</v>
+        <v>0.3849934120563033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>339</v>
@@ -765,19 +765,19 @@
         <v>351457</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>321341</v>
+        <v>322074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>379155</v>
+        <v>380854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3810519742063544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3483997375620867</v>
+        <v>0.3491951296475206</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4110830814212137</v>
+        <v>0.4129249608287968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>536</v>
@@ -786,19 +786,19 @@
         <v>553238</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>518597</v>
+        <v>517406</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>593091</v>
+        <v>590220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3672403109592468</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3442453656117348</v>
+        <v>0.3434549824620747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3936949666243233</v>
+        <v>0.3917889908046388</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>382360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>359572</v>
+        <v>359251</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405961</v>
+        <v>406878</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6545676870403091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6155570161163433</v>
+        <v>0.6150065879436964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6949701327258579</v>
+        <v>0.6965400470230368</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>546</v>
@@ -836,19 +836,19 @@
         <v>570876</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>543178</v>
+        <v>541479</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>600992</v>
+        <v>600259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6189480257936455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5889169185787861</v>
+        <v>0.5870750391712031</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6516002624379132</v>
+        <v>0.6508048703524794</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>923</v>
@@ -857,19 +857,19 @@
         <v>953236</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>913383</v>
+        <v>916254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>987877</v>
+        <v>989068</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6327596890407532</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6063050333756768</v>
+        <v>0.6082110091953613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6557546343882652</v>
+        <v>0.6565450175379254</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>325471</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>295422</v>
+        <v>296369</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>356764</v>
+        <v>357208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3019510846154291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2740734500245741</v>
+        <v>0.2749519986669223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3309824211364427</v>
+        <v>0.3313940164662149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>338</v>
@@ -982,19 +982,19 @@
         <v>350865</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>318913</v>
+        <v>320981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>382762</v>
+        <v>382407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3317752541890117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3015613854734077</v>
+        <v>0.3035174205806859</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3619369436903574</v>
+        <v>0.3616014199510311</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>651</v>
@@ -1003,19 +1003,19 @@
         <v>676336</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>633828</v>
+        <v>628213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>720263</v>
+        <v>717739</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3167210197895526</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2968150967269449</v>
+        <v>0.2941852810390779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3372915396384621</v>
+        <v>0.3361094592364667</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>752423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>721130</v>
+        <v>720686</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>782472</v>
+        <v>781525</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6980489153845709</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6690175788635573</v>
+        <v>0.668605983533785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7259265499754259</v>
+        <v>0.7250480013330775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>690</v>
@@ -1053,19 +1053,19 @@
         <v>706673</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>674776</v>
+        <v>675131</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>738625</v>
+        <v>736557</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6682247458109883</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6380630563096426</v>
+        <v>0.6383985800489689</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6984386145265924</v>
+        <v>0.6964825794193144</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1432</v>
@@ -1074,19 +1074,19 @@
         <v>1459096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1415169</v>
+        <v>1417693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1501604</v>
+        <v>1507219</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6832789802104474</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6627084603615381</v>
+        <v>0.6638905407635335</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7031849032730556</v>
+        <v>0.7058147189609222</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>275473</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246936</v>
+        <v>248467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>304504</v>
+        <v>305479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2456080471352219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2201652764814031</v>
+        <v>0.2215299971282729</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2714922045355309</v>
+        <v>0.2723612543366493</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>303</v>
@@ -1199,19 +1199,19 @@
         <v>308607</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>278792</v>
+        <v>277271</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>336145</v>
+        <v>337245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3104884763745371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2804914370339135</v>
+        <v>0.2789612003990662</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3381945536819455</v>
+        <v>0.3393007981915971</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>573</v>
@@ -1220,19 +1220,19 @@
         <v>584079</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>545560</v>
+        <v>546565</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>625959</v>
+        <v>628651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2760907677337055</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2578830832096511</v>
+        <v>0.2583581443263708</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.29588721093017</v>
+        <v>0.2971592873125189</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>846121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>817090</v>
+        <v>816115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>874658</v>
+        <v>873127</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7543919528647781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7285077954644691</v>
+        <v>0.7276387456633503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7798347235185968</v>
+        <v>0.7784700028717271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>679</v>
@@ -1270,19 +1270,19 @@
         <v>685333</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>657795</v>
+        <v>656695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>715148</v>
+        <v>716669</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6895115236254629</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6618054463180539</v>
+        <v>0.6606992018084029</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.719508562966086</v>
+        <v>0.7210387996009336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1512</v>
@@ -1291,19 +1291,19 @@
         <v>1531455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1489575</v>
+        <v>1486883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1569974</v>
+        <v>1568969</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7239092322662946</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.70411278906983</v>
+        <v>0.7028407126874812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.742116916790349</v>
+        <v>0.7416418556736292</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>151641</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130682</v>
+        <v>128771</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>171073</v>
+        <v>171235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3390908767510049</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2922225418734786</v>
+        <v>0.287949844069823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3825432291029743</v>
+        <v>0.3829050043032845</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -1416,19 +1416,19 @@
         <v>129225</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110802</v>
+        <v>112057</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147356</v>
+        <v>148247</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3787841882677928</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3247832040342957</v>
+        <v>0.3284610534171525</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.431928966130003</v>
+        <v>0.4345398048411225</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>272</v>
@@ -1437,19 +1437,19 @@
         <v>280867</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>252367</v>
+        <v>254207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>306240</v>
+        <v>309703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3562679715985737</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3201177660256554</v>
+        <v>0.3224510388943914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3884534714396528</v>
+        <v>0.3928453950932875</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>295559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>276127</v>
+        <v>275965</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316518</v>
+        <v>318429</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6609091232489952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6174567708970258</v>
+        <v>0.6170949956967156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7077774581265216</v>
+        <v>0.712050155930177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>212</v>
@@ -1487,19 +1487,19 @@
         <v>211933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>193802</v>
+        <v>192911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230356</v>
+        <v>229101</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6212158117322073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.568071033869997</v>
+        <v>0.5654601951588776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6752167959657044</v>
+        <v>0.6715389465828475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>503</v>
@@ -1508,19 +1508,19 @@
         <v>507491</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>482118</v>
+        <v>478655</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>535991</v>
+        <v>534151</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6437320284014264</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6115465285603467</v>
+        <v>0.6071546049067125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6798822339743446</v>
+        <v>0.6775489611056085</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>954366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>903297</v>
+        <v>901915</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1011446</v>
+        <v>1005800</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.295393650286234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2795868660534532</v>
+        <v>0.2791591274112615</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3130609445841764</v>
+        <v>0.3113133137309744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1107</v>
@@ -1633,19 +1633,19 @@
         <v>1140154</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1082441</v>
+        <v>1086711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1197310</v>
+        <v>1193182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3439410566890347</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3265312433024644</v>
+        <v>0.3278193960378212</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.361182831427354</v>
+        <v>0.3599376205850294</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2032</v>
@@ -1654,19 +1654,19 @@
         <v>2094520</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2021233</v>
+        <v>2021526</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2177607</v>
+        <v>2180460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3199793670621504</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3087832135141236</v>
+        <v>0.3088280450417118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3326725159446294</v>
+        <v>0.3331083465723247</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2276463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2219383</v>
+        <v>2225029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2327532</v>
+        <v>2328914</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.704606349713766</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6869390554158238</v>
+        <v>0.6886866862690257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7204131339465468</v>
+        <v>0.7208408725887387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2127</v>
@@ -1704,19 +1704,19 @@
         <v>2174815</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2117659</v>
+        <v>2121787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2232528</v>
+        <v>2228258</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6560589433109653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.638817168572646</v>
+        <v>0.6400623794149706</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6734687566975356</v>
+        <v>0.6721806039621788</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4370</v>
@@ -1725,19 +1725,19 @@
         <v>4451278</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4368191</v>
+        <v>4365338</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4524565</v>
+        <v>4524272</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6800206329378496</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6673274840553705</v>
+        <v>0.6668916534276752</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6912167864858765</v>
+        <v>0.6911719549582881</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>379316</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>347499</v>
+        <v>349271</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>411759</v>
+        <v>415381</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3636055155535358</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3331061950851556</v>
+        <v>0.3348045103201792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3947047512621146</v>
+        <v>0.3981770019891077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>382</v>
@@ -2090,19 +2090,19 @@
         <v>414386</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>381955</v>
+        <v>383639</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>447195</v>
+        <v>450402</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3703619676621329</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3413763659602158</v>
+        <v>0.3428810323580475</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3996850147355509</v>
+        <v>0.4025516238936513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>734</v>
@@ -2111,19 +2111,19 @@
         <v>793702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>748651</v>
+        <v>749597</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>842414</v>
+        <v>843086</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3671019594139493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3462649518022397</v>
+        <v>0.3467026143211875</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3896319807193889</v>
+        <v>0.389942772289869</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>663892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>631449</v>
+        <v>627827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>695709</v>
+        <v>693937</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6363944844464642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6052952487378856</v>
+        <v>0.6018229980108923</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6668938049148445</v>
+        <v>0.6651954896798208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>648</v>
@@ -2161,19 +2161,19 @@
         <v>704482</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>671673</v>
+        <v>668466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>736913</v>
+        <v>735229</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6296380323378671</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6003149852644492</v>
+        <v>0.5974483761063486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6586236340397843</v>
+        <v>0.6571189676419525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1273</v>
@@ -2182,19 +2182,19 @@
         <v>1368374</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1319662</v>
+        <v>1318990</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1413425</v>
+        <v>1412479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6328980405860507</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6103680192806111</v>
+        <v>0.6100572277101309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6537350481977604</v>
+        <v>0.6532973856788125</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>374504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>343012</v>
+        <v>343378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>407137</v>
+        <v>408216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3836938971119769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3514288664020771</v>
+        <v>0.3518044386277847</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4171271966846556</v>
+        <v>0.4182334885009553</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>391</v>
@@ -2307,19 +2307,19 @@
         <v>418145</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>387249</v>
+        <v>381114</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>452092</v>
+        <v>451189</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3821247123597008</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3538909135001223</v>
+        <v>0.3482837210914669</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4131478134098759</v>
+        <v>0.4123227981445755</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>749</v>
@@ -2328,19 +2328,19 @@
         <v>792649</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>747129</v>
+        <v>745988</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>840327</v>
+        <v>838189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3828645050943169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3608775830652926</v>
+        <v>0.3603265235703743</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4058941082294834</v>
+        <v>0.404861480250176</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>601545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>568912</v>
+        <v>567833</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>633037</v>
+        <v>632671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6163061028880231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5828728033153441</v>
+        <v>0.5817665114990449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.648571133597923</v>
+        <v>0.6481955613722155</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>629</v>
@@ -2378,19 +2378,19 @@
         <v>676117</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>642170</v>
+        <v>643073</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>707013</v>
+        <v>713148</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6178752876402992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5868521865901242</v>
+        <v>0.5876772018554245</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.646109086499878</v>
+        <v>0.651716278908533</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1194</v>
@@ -2399,19 +2399,19 @@
         <v>1277662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1229984</v>
+        <v>1232122</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1323182</v>
+        <v>1324323</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6171354949056831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5941058917705165</v>
+        <v>0.595138519749824</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6391224169347074</v>
+        <v>0.6396734764296257</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>380788</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>348509</v>
+        <v>351415</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>408824</v>
+        <v>410528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4312460168412394</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3946894633242287</v>
+        <v>0.3979810013912222</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4629969834733723</v>
+        <v>0.4649268149435096</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>352</v>
@@ -2524,19 +2524,19 @@
         <v>375793</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>344592</v>
+        <v>347956</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>406298</v>
+        <v>407414</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4295566685952976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3938908929225935</v>
+        <v>0.3977371887631609</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4644258518128619</v>
+        <v>0.46570157728557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>715</v>
@@ -2545,19 +2545,19 @@
         <v>756581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>716571</v>
+        <v>713864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>796038</v>
+        <v>798330</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4304052615111306</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4076441642076334</v>
+        <v>0.4061040281678312</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4528515438838664</v>
+        <v>0.4541552177821603</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>502207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>474171</v>
+        <v>472467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534486</v>
+        <v>531580</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5687539831587606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5370030165266276</v>
+        <v>0.5350731850564905</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6053105366757713</v>
+        <v>0.6020189986087777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>468</v>
@@ -2595,19 +2595,19 @@
         <v>499047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>468542</v>
+        <v>467426</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>530248</v>
+        <v>526884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5704433314047025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5355741481871383</v>
+        <v>0.5342984227144297</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.606109107077407</v>
+        <v>0.602262811236839</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>933</v>
@@ -2616,19 +2616,19 @@
         <v>1001254</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>961797</v>
+        <v>959505</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1041264</v>
+        <v>1043971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5695947384888693</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5471484561161334</v>
+        <v>0.5458447822178395</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5923558357923665</v>
+        <v>0.5938959718321686</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>216862</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194414</v>
+        <v>192781</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>241384</v>
+        <v>237529</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4324450422085532</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3876820503699309</v>
+        <v>0.3844252576333969</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4813437786465962</v>
+        <v>0.4736579005598267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>183</v>
@@ -2741,19 +2741,19 @@
         <v>201226</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179462</v>
+        <v>179690</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223084</v>
+        <v>222865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4471662469238738</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3988016542165115</v>
+        <v>0.3993083508138353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4957393530703419</v>
+        <v>0.4952523312002306</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>384</v>
@@ -2762,19 +2762,19 @@
         <v>418088</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>388199</v>
+        <v>387308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>449272</v>
+        <v>449074</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4394074254930115</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4079939327369982</v>
+        <v>0.4070573344670734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4721816153326326</v>
+        <v>0.4719734174553052</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>284617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>260095</v>
+        <v>263950</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307065</v>
+        <v>308698</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5675549577914468</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5186562213534036</v>
+        <v>0.5263420994401733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6123179496300689</v>
+        <v>0.615574742366603</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>227</v>
@@ -2812,19 +2812,19 @@
         <v>248777</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226919</v>
+        <v>227138</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>270541</v>
+        <v>270313</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5528337530761263</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.504260646929658</v>
+        <v>0.5047476687997694</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6011983457834884</v>
+        <v>0.6006916491861645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>486</v>
@@ -2833,19 +2833,19 @@
         <v>533394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>502210</v>
+        <v>502408</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>563283</v>
+        <v>564174</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5605925745069884</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5278183846673676</v>
+        <v>0.5280265825446949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5920060672630019</v>
+        <v>0.5929426655329276</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1351470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1293674</v>
+        <v>1292267</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1410230</v>
+        <v>1409948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3970555931736607</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.38007515273841</v>
+        <v>0.3796618983861557</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4143189306183395</v>
+        <v>0.4142361253218025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1308</v>
@@ -2958,19 +2958,19 @@
         <v>1409550</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1350639</v>
+        <v>1343054</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1468318</v>
+        <v>1461801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3984061510924884</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3817551646410225</v>
+        <v>0.3796110735130359</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4150166495211966</v>
+        <v>0.4131746807478145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2582</v>
@@ -2979,19 +2979,19 @@
         <v>2761021</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2684619</v>
+        <v>2683740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2849094</v>
+        <v>2847938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3977439309176437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3867376827533195</v>
+        <v>0.3866110941366236</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4104314854827559</v>
+        <v>0.4102649848181653</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2052261</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1993501</v>
+        <v>1993783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2110057</v>
+        <v>2111464</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6029444068263393</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5856810693816604</v>
+        <v>0.5857638746781973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6199248472615898</v>
+        <v>0.6203381016138442</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1972</v>
@@ -3029,19 +3029,19 @@
         <v>2128423</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2069655</v>
+        <v>2076172</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2187334</v>
+        <v>2194919</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6015938489075117</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5849833504788033</v>
+        <v>0.5868253192521855</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6182448353589775</v>
+        <v>0.6203889264869641</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3886</v>
@@ -3050,19 +3050,19 @@
         <v>4180683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4092610</v>
+        <v>4093766</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4257085</v>
+        <v>4257964</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6022560690823564</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5895685145172441</v>
+        <v>0.5897350151818347</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6132623172466805</v>
+        <v>0.6133889058633762</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>378267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>346082</v>
+        <v>347302</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>411970</v>
+        <v>408849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3353437421993544</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3068108384356744</v>
+        <v>0.307892884183307</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3652230439361296</v>
+        <v>0.3624554091845833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>424</v>
@@ -3415,19 +3415,19 @@
         <v>451473</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>417918</v>
+        <v>417457</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>486154</v>
+        <v>488074</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3584366026795676</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3317964558412168</v>
+        <v>0.331430251167207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3859712242944201</v>
+        <v>0.3874954465595781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>782</v>
@@ -3436,19 +3436,19 @@
         <v>829739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>784472</v>
+        <v>782983</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>878714</v>
+        <v>881168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3475264247248426</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.328566671540976</v>
+        <v>0.3279428656987884</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3680386974088763</v>
+        <v>0.3690666333109622</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>749730</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>716027</v>
+        <v>719148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>781915</v>
+        <v>780695</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6646562578006456</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6347769560638704</v>
+        <v>0.6375445908154169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6931891615643258</v>
+        <v>0.6921071158166933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>764</v>
@@ -3486,19 +3486,19 @@
         <v>808088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>773407</v>
+        <v>771487</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>841643</v>
+        <v>842104</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6415633973204324</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6140287757055799</v>
+        <v>0.6125045534404224</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6682035441587832</v>
+        <v>0.6685697488327932</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1472</v>
@@ -3507,19 +3507,19 @@
         <v>1557819</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1508844</v>
+        <v>1506390</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1603086</v>
+        <v>1604575</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6524735752751574</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6319613025911236</v>
+        <v>0.6309333666890378</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.671433328459024</v>
+        <v>0.6720571343012116</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>330305</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>300144</v>
+        <v>300779</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>362362</v>
+        <v>359156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3634413684064675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3302552750316032</v>
+        <v>0.3309536266831435</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3987148557595058</v>
+        <v>0.3951875656776199</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>361</v>
@@ -3632,19 +3632,19 @@
         <v>387575</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>356729</v>
+        <v>357454</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>422881</v>
+        <v>419204</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3859656637722498</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3552483599228613</v>
+        <v>0.3559703231091365</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4211249296156582</v>
+        <v>0.417464071493259</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>680</v>
@@ -3653,19 +3653,19 @@
         <v>717879</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>674524</v>
+        <v>675342</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>757777</v>
+        <v>761232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3752648266853329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3526012080860183</v>
+        <v>0.3530287775788195</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3961208450296702</v>
+        <v>0.3979271705726632</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>578520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>546463</v>
+        <v>549669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>608681</v>
+        <v>608046</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6365586315935325</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6012851442404942</v>
+        <v>0.6048124343223801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6697447249683969</v>
+        <v>0.6690463733168565</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -3703,19 +3703,19 @@
         <v>616594</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>581288</v>
+        <v>584965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>647440</v>
+        <v>646715</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6140343362277502</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5788750703843419</v>
+        <v>0.5825359285067411</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6447516400771386</v>
+        <v>0.6440296768908635</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1150</v>
@@ -3724,19 +3724,19 @@
         <v>1195115</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1155217</v>
+        <v>1151762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1238470</v>
+        <v>1237652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6247351733146671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6038791549703297</v>
+        <v>0.6020728294273364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6473987919139816</v>
+        <v>0.6469712224211803</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>274078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246948</v>
+        <v>247211</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>305187</v>
+        <v>302093</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3327164299739446</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2997823153823064</v>
+        <v>0.300100777051645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3704810674715451</v>
+        <v>0.366724861893212</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>228</v>
@@ -3849,19 +3849,19 @@
         <v>241017</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215199</v>
+        <v>217762</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>268191</v>
+        <v>266032</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3125791588135505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2790948735452375</v>
+        <v>0.2824191980635682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.347822148648274</v>
+        <v>0.3450213840922742</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>488</v>
@@ -3870,19 +3870,19 @@
         <v>515095</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>476973</v>
+        <v>476701</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>553095</v>
+        <v>549035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3229805114228249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2990765778168471</v>
+        <v>0.2989061566883454</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3468074089511137</v>
+        <v>0.3442618978209543</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>549681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>518572</v>
+        <v>521666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>576811</v>
+        <v>576548</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6672835700260553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6295189325284551</v>
+        <v>0.6332751381067879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7002176846176937</v>
+        <v>0.6998992229483549</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>500</v>
@@ -3920,19 +3920,19 @@
         <v>530042</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>502868</v>
+        <v>505027</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>555860</v>
+        <v>553297</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6874208411864495</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.652177851351726</v>
+        <v>0.6549786159077257</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7209051264547626</v>
+        <v>0.7175808019364317</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1027</v>
@@ -3941,19 +3941,19 @@
         <v>1079723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1041723</v>
+        <v>1045783</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1117845</v>
+        <v>1118117</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6770194885771751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6531925910488863</v>
+        <v>0.6557381021790458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7009234221831527</v>
+        <v>0.7010938433116547</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>229768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>206456</v>
+        <v>207351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>252830</v>
+        <v>253257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.454594654671571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4084721706708517</v>
+        <v>0.4102430915325572</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5002238343170355</v>
+        <v>0.5010682481950691</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -4066,19 +4066,19 @@
         <v>209322</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>188574</v>
+        <v>188490</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>232838</v>
+        <v>234592</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4274515380290978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3850817844331231</v>
+        <v>0.3849109255165562</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4754735154528982</v>
+        <v>0.4790547193072769</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>404</v>
@@ -4087,19 +4087,19 @@
         <v>439089</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>407703</v>
+        <v>408064</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>469963</v>
+        <v>469986</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4412377043809746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4096980353378736</v>
+        <v>0.4100609500704399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.472262186099562</v>
+        <v>0.4722852966275829</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>275666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>252604</v>
+        <v>252177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298978</v>
+        <v>298083</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5454053453284291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4997761656829644</v>
+        <v>0.4989317518049308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5915278293291483</v>
+        <v>0.5897569084674429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -4137,19 +4137,19 @@
         <v>280376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256860</v>
+        <v>255106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>301124</v>
+        <v>301208</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5725484619709023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5245264845471018</v>
+        <v>0.5209452806927228</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.614918215566877</v>
+        <v>0.6150890744834437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>521</v>
@@ -4158,19 +4158,19 @@
         <v>556042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>525168</v>
+        <v>525145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>587428</v>
+        <v>587067</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5587622956190254</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5277378139004378</v>
+        <v>0.5277147033724171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5903019646621263</v>
+        <v>0.58993904992956</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1212417</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1160915</v>
+        <v>1154946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1273037</v>
+        <v>1267121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3601935919724806</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3448929171222986</v>
+        <v>0.3431196137880873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3782028919160622</v>
+        <v>0.3764453773369315</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1206</v>
@@ -4283,19 +4283,19 @@
         <v>1289386</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1231095</v>
+        <v>1232914</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1350052</v>
+        <v>1346825</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3658366874479356</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3492976801805538</v>
+        <v>0.3498138229518832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3830492384972126</v>
+        <v>0.3821336610406675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2354</v>
@@ -4304,19 +4304,19 @@
         <v>2501803</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2425044</v>
+        <v>2415432</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2587143</v>
+        <v>2585571</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3630800311414151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3519401959035091</v>
+        <v>0.3505451715335331</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3754652187807729</v>
+        <v>0.3752369948280831</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2153598</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2092978</v>
+        <v>2098894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2205100</v>
+        <v>2211069</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6398064080275193</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6217971080839378</v>
+        <v>0.6235546226630685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6551070828777015</v>
+        <v>0.6568803862119127</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2114</v>
@@ -4354,19 +4354,19 @@
         <v>2235100</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2174434</v>
+        <v>2177661</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2293391</v>
+        <v>2291572</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6341633125520644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6169507615027875</v>
+        <v>0.6178663389593325</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6507023198194462</v>
+        <v>0.6501861770481167</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4170</v>
@@ -4375,19 +4375,19 @@
         <v>4388698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4303358</v>
+        <v>4304930</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4465457</v>
+        <v>4475069</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6369199688585848</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6245347812192272</v>
+        <v>0.6247630051719169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6480598040964911</v>
+        <v>0.6494548284664666</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>143000</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122350</v>
+        <v>120855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168593</v>
+        <v>165235</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2867230451478596</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.245318821523223</v>
+        <v>0.2423219474223662</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3380378118843441</v>
+        <v>0.3313058398576211</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -4740,19 +4740,19 @@
         <v>190171</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>170181</v>
+        <v>170034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>211860</v>
+        <v>212673</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3049667218331533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2729094620084828</v>
+        <v>0.2726742617871595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3397472901930555</v>
+        <v>0.3410523093449179</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>371</v>
@@ -4761,19 +4761,19 @@
         <v>333171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>303894</v>
+        <v>301480</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364644</v>
+        <v>362268</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2968595487984279</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2707728158076935</v>
+        <v>0.2686219490506641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.324902288143278</v>
+        <v>0.322785354479852</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>355739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>330146</v>
+        <v>333504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>376389</v>
+        <v>377884</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7132769548521404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6619621881156559</v>
+        <v>0.6686941601423786</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.754681178476777</v>
+        <v>0.7576780525776339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>621</v>
@@ -4811,19 +4811,19 @@
         <v>433409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>411720</v>
+        <v>410907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>453399</v>
+        <v>453546</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6950332781668465</v>
+        <v>0.6950332781668466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6602527098069454</v>
+        <v>0.6589476906550821</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7270905379915181</v>
+        <v>0.7273257382128407</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>945</v>
@@ -4832,19 +4832,19 @@
         <v>789149</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757676</v>
+        <v>760052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>818426</v>
+        <v>820840</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7031404512015721</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6750977118567221</v>
+        <v>0.6772146455201481</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7292271841923065</v>
+        <v>0.7313780509493358</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>137700</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114437</v>
+        <v>115431</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164494</v>
+        <v>162153</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1434172658692546</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1191882664874455</v>
+        <v>0.1202238821053689</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.171323275054864</v>
+        <v>0.1688848302636498</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>255</v>
@@ -4957,19 +4957,19 @@
         <v>187847</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166593</v>
+        <v>167759</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>211633</v>
+        <v>212705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1683442564093364</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1492972110965703</v>
+        <v>0.1503417134286642</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1896608887215088</v>
+        <v>0.1906214210483358</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>383</v>
@@ -4978,19 +4978,19 @@
         <v>325547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>295063</v>
+        <v>295448</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>364057</v>
+        <v>360049</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1568156054421025</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1421317259350261</v>
+        <v>0.1423170149650754</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1753659816166989</v>
+        <v>0.1734351674587545</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>822437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>795643</v>
+        <v>797984</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>845700</v>
+        <v>844706</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8565827341307456</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8286767249451362</v>
+        <v>0.83111516973635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8808117335125546</v>
+        <v>0.8797761178946309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1352</v>
@@ -5028,19 +5028,19 @@
         <v>928002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>904216</v>
+        <v>903144</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>949256</v>
+        <v>948090</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8316557435906636</v>
+        <v>0.8316557435906635</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8103391112784912</v>
+        <v>0.8093785789516644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8507027889034299</v>
+        <v>0.8496582865713358</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2134</v>
@@ -5049,19 +5049,19 @@
         <v>1750439</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1711929</v>
+        <v>1715937</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1780923</v>
+        <v>1780538</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8431843945578976</v>
+        <v>0.8431843945578974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8246340183833012</v>
+        <v>0.8265648325412455</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8578682740649743</v>
+        <v>0.8576829850349246</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>154871</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130726</v>
+        <v>129089</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181146</v>
+        <v>182969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1479926982447447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.124919459694029</v>
+        <v>0.1233557445039295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1731007975371208</v>
+        <v>0.1748422093748466</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -5174,19 +5174,19 @@
         <v>179729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157994</v>
+        <v>157357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202916</v>
+        <v>203747</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1715558010276492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1508091831878053</v>
+        <v>0.1502009854860233</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.193687929225148</v>
+        <v>0.1944812461431304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>379</v>
@@ -5195,19 +5195,19 @@
         <v>334600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>301601</v>
+        <v>298546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>369551</v>
+        <v>366899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1597807890732794</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.144022531166259</v>
+        <v>0.1425638627875747</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1764704915661478</v>
+        <v>0.1752040837141413</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>891608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>865333</v>
+        <v>863510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>915753</v>
+        <v>917390</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8520073017552552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8268992024628791</v>
+        <v>0.8251577906251533</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8750805403059712</v>
+        <v>0.8766442554960705</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1280</v>
@@ -5245,19 +5245,19 @@
         <v>867913</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>844726</v>
+        <v>843895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>889648</v>
+        <v>890285</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8284441989723508</v>
+        <v>0.8284441989723509</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8063120707748519</v>
+        <v>0.8055187538568698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8491908168121948</v>
+        <v>0.8497990145139768</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2166</v>
@@ -5266,19 +5266,19 @@
         <v>1759521</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1724570</v>
+        <v>1727222</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1792520</v>
+        <v>1795575</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8402192109267205</v>
+        <v>0.8402192109267206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8235295084338522</v>
+        <v>0.8247959162858586</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8559774688337412</v>
+        <v>0.8574361372124254</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>211186</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184564</v>
+        <v>185732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237831</v>
+        <v>242298</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2163945946994739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1891166745192951</v>
+        <v>0.1903132859583748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2436969774836602</v>
+        <v>0.2482741662563245</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>265</v>
@@ -5391,19 +5391,19 @@
         <v>198939</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177591</v>
+        <v>175239</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222349</v>
+        <v>221526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2186963108140958</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1952284309847615</v>
+        <v>0.1926424623368075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.244430895265193</v>
+        <v>0.2435263243658903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>467</v>
@@ -5412,19 +5412,19 @@
         <v>410125</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>372705</v>
+        <v>375588</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>447184</v>
+        <v>449372</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2175050055757109</v>
+        <v>0.2175050055757108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.197659479875021</v>
+        <v>0.1991887969605041</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2371587243054279</v>
+        <v>0.2383189774662079</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>764743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>738098</v>
+        <v>733631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>791365</v>
+        <v>790197</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7836054053005261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.75630302251634</v>
+        <v>0.7517258337436755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.810883325480705</v>
+        <v>0.8096867140416253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1058</v>
@@ -5462,19 +5462,19 @@
         <v>710721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>687311</v>
+        <v>688134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>732069</v>
+        <v>734421</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7813036891859043</v>
+        <v>0.7813036891859041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7555691047348075</v>
+        <v>0.7564736756341098</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8047715690152386</v>
+        <v>0.8073575376631933</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1803</v>
@@ -5483,19 +5483,19 @@
         <v>1475464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1438405</v>
+        <v>1436217</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1512884</v>
+        <v>1510001</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7824949944242892</v>
+        <v>0.7824949944242889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7628412756945721</v>
+        <v>0.7616810225337921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.802340520124979</v>
+        <v>0.8008112030394958</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>646757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>596381</v>
+        <v>597654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>699038</v>
+        <v>699657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1857812355413247</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1713105510502928</v>
+        <v>0.1716761842224955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2007988776753865</v>
+        <v>0.200976747228206</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>996</v>
@@ -5608,19 +5608,19 @@
         <v>756686</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>710358</v>
+        <v>714631</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>806378</v>
+        <v>802763</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2046906555625287</v>
+        <v>0.2046906555625286</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1921584290092259</v>
+        <v>0.1933142068842177</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2181326204049281</v>
+        <v>0.2171547626015777</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1600</v>
@@ -5629,19 +5629,19 @@
         <v>1403444</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1331713</v>
+        <v>1331749</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1479139</v>
+        <v>1477427</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.19551972647257</v>
+        <v>0.1955197264725701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1855265780281027</v>
+        <v>0.1855316046197677</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.206065135014722</v>
+        <v>0.2058267106157073</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2834527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2782246</v>
+        <v>2781627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2884903</v>
+        <v>2883630</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8142187644586752</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7992011223246142</v>
+        <v>0.799023252771794</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8286894489497072</v>
+        <v>0.8283238157775045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4311</v>
@@ -5679,19 +5679,19 @@
         <v>2940045</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2890353</v>
+        <v>2893968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2986373</v>
+        <v>2982100</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7953093444374714</v>
+        <v>0.7953093444374713</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.781867379595072</v>
+        <v>0.7828452373984224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.807841570990774</v>
+        <v>0.8066857931157824</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7048</v>
@@ -5700,19 +5700,19 @@
         <v>5774571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5698876</v>
+        <v>5700588</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5846302</v>
+        <v>5846266</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8044802735274299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.793934864985278</v>
+        <v>0.7941732893842928</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8144734219718971</v>
+        <v>0.8144683953802325</v>
       </c>
     </row>
     <row r="18">
